--- a/wwwroot/Reports/topReport_records2023.xlsx
+++ b/wwwroot/Reports/topReport_records2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Топ продаж пластинок в 2023</t>
   </si>
@@ -43,16 +43,25 @@
     <t>Кол-во</t>
   </si>
   <si>
-    <t>d</t>
+    <t>о-12</t>
   </si>
   <si>
-    <t>ф</t>
+    <t>Весна</t>
   </si>
   <si>
-    <t>a</t>
+    <t>hgh1</t>
   </si>
   <si>
-    <t>s</t>
+    <t>i999i</t>
+  </si>
+  <si>
+    <t>502aс</t>
+  </si>
+  <si>
+    <t>Зима</t>
+  </si>
+  <si>
+    <t>293uuu</t>
   </si>
 </sst>
 </file>
@@ -195,16 +204,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8">
@@ -215,10 +224,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
@@ -235,33 +244,57 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>260</v>
+      </c>
+      <c r="D6" s="4">
+        <v>100</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="13.8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
     <row r="7" ht="13.8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>150</v>
+      </c>
+      <c r="D7" s="4">
+        <v>125</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" ht="13.8">
       <c r="A8" s="3"/>
